--- a/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A75577E-72E5-4B18-A11D-47F5C3E1B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E385DAB-D4FA-443A-A96A-01781FB4C66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92DE1F84-6CDC-4BEF-8675-7E7EE3FA5359}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A1E0271-64EB-4DC8-B9DC-2D6773867554}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="200">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -212,13 +212,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>6,94%</t>
+    <t>5,73%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -227,76 +227,82 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,55%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>95,99%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>93,06%</t>
+    <t>94,27%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>96,45%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>2,45%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>2,34%</t>
@@ -305,213 +311,201 @@
     <t>1,53%</t>
   </si>
   <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>3,31%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>96,69%</t>
   </si>
   <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
   </si>
   <si>
     <t>99,58%</t>
   </si>
   <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
     <t>0,4%</t>
   </si>
   <si>
@@ -569,18 +563,12 @@
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
     <t>0,07%</t>
   </si>
   <si>
     <t>99,88%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
     <t>99,93%</t>
   </si>
   <si>
@@ -605,16 +593,10 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
     <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -1068,7 +1050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E89A35-8732-4C46-BB0D-2DDCC686E629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B066E47D-EAA6-4FC5-8870-7E46B66F8CFE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2131,7 +2113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223CB65A-EFD7-46BE-9D86-28FAC3704483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD91E1C1-FEF3-4146-8753-A6FD799E95A4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2413,10 +2395,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2425,13 +2407,13 @@
         <v>13945</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -2440,13 +2422,13 @@
         <v>16933</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2464,10 +2446,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -2476,13 +2458,13 @@
         <v>566508</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>1081</v>
@@ -2491,13 +2473,13 @@
         <v>1147061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2547,13 @@
         <v>13806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2580,13 +2562,13 @@
         <v>23977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2595,13 +2577,13 @@
         <v>37783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2598,13 @@
         <v>1004141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>912</v>
@@ -2634,10 +2616,10 @@
         <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>1837</v>
@@ -2646,13 +2628,13 @@
         <v>2005810</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2702,13 @@
         <v>4953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2735,13 +2717,13 @@
         <v>8253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2750,13 +2732,13 @@
         <v>13205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2753,13 @@
         <v>751585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>109</v>
+        <v>65</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -2786,13 +2768,13 @@
         <v>765937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="M14" s="7">
         <v>1378</v>
@@ -2801,13 +2783,13 @@
         <v>1517523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2857,13 @@
         <v>15819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -2890,13 +2872,13 @@
         <v>34681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2905,13 +2887,13 @@
         <v>50500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2908,13 @@
         <v>928120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H17" s="7">
         <v>965</v>
@@ -2941,13 +2923,13 @@
         <v>1013081</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>1859</v>
@@ -2956,13 +2938,13 @@
         <v>1941201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3012,13 @@
         <v>38384</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3045,13 +3027,13 @@
         <v>82913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -3060,13 +3042,13 @@
         <v>121296</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3063,13 @@
         <v>3378531</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>3203</v>
@@ -3099,10 +3081,10 @@
         <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>6372</v>
@@ -3111,13 +3093,13 @@
         <v>6835574</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,7 +3176,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65563BA8-57EA-4CA4-B0F5-149EB2005A23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26091D66-41C1-4E66-9D75-E6A135149263}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3211,7 +3193,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,7 +3306,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3339,7 +3321,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3354,7 +3336,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3387,7 +3369,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3402,7 +3384,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3479,7 +3461,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3494,7 +3476,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3509,7 +3491,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,7 +3509,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3542,7 +3524,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3557,7 +3539,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3634,37 +3616,37 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,7 +3664,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3697,7 +3679,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3712,7 +3694,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3789,37 +3771,37 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M13" s="7">
-        <v>0</v>
-      </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3852,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3867,7 +3849,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3944,37 +3926,37 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,7 +3974,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4007,7 +3989,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4022,7 +4004,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4099,7 +4081,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4114,7 +4096,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>70</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4129,7 +4111,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,7 +4129,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4162,7 +4144,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4177,7 +4159,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4257,7 +4239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3682326-464B-4680-BCA0-1A1C00A68AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADE80D-B9AA-4BCA-BCA0-A8103A4210A0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,7 +4256,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4402,7 +4384,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4417,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4417,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4450,7 +4432,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4465,7 +4447,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4542,7 +4524,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4557,7 +4539,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4572,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4590,7 +4572,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>85</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4605,7 +4587,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4620,7 +4602,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4697,7 +4679,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4712,7 +4694,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4727,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,7 +4727,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4760,7 +4742,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4775,7 +4757,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4852,7 +4834,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4867,7 +4849,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4882,7 +4864,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,7 +4882,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4915,7 +4897,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4930,7 +4912,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5022,7 +5004,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5070,7 +5052,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5177,7 +5159,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5225,7 +5207,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E385DAB-D4FA-443A-A96A-01781FB4C66F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B6CA9F-A4FD-4700-913C-FF3AE15BBC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A1E0271-64EB-4DC8-B9DC-2D6773867554}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF8E17B6-269F-4D71-BA25-1246F83356D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="208">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -107,7 +107,7 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,57%</t>
@@ -128,7 +128,7 @@
     <t>99,67%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,37%</t>
@@ -149,7 +149,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,5%</t>
@@ -212,393 +212,423 @@
     <t>0,71%</t>
   </si>
   <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
   </si>
   <si>
     <t>0,83%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
   </si>
   <si>
     <t>99,17%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2015 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -611,16 +641,10 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>0,53%</t>
   </si>
   <si>
     <t>0,3%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -1050,7 +1074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B066E47D-EAA6-4FC5-8870-7E46B66F8CFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147613C-B882-4285-B339-3714657DF81C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2113,7 +2137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD91E1C1-FEF3-4146-8753-A6FD799E95A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F1F5EC-0369-4104-A76C-AA9012A60ADA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2562,13 +2586,13 @@
         <v>23977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2577,13 +2601,13 @@
         <v>37783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2598,13 +2622,13 @@
         <v>1004141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H11" s="7">
         <v>912</v>
@@ -2613,13 +2637,13 @@
         <v>1001669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M11" s="7">
         <v>1837</v>
@@ -2628,13 +2652,13 @@
         <v>2005810</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,13 +2726,13 @@
         <v>4953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2717,13 +2741,13 @@
         <v>8253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2732,13 +2756,13 @@
         <v>13205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>103</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,13 +2777,13 @@
         <v>751585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -2768,13 +2792,13 @@
         <v>765937</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>1378</v>
@@ -2783,13 +2807,13 @@
         <v>1517523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>109</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2857,13 +2881,13 @@
         <v>15819</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -2872,13 +2896,13 @@
         <v>34681</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2887,13 +2911,13 @@
         <v>50500</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,13 +2932,13 @@
         <v>928120</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>965</v>
@@ -2923,13 +2947,13 @@
         <v>1013081</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M17" s="7">
         <v>1859</v>
@@ -2938,13 +2962,13 @@
         <v>1941201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3036,13 @@
         <v>38384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3027,13 +3051,13 @@
         <v>82913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -3042,13 +3066,13 @@
         <v>121296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3087,13 @@
         <v>3378531</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>3203</v>
@@ -3078,28 +3102,28 @@
         <v>3457043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="M20" s="7">
         <v>6372</v>
       </c>
       <c r="N20" s="7">
-        <v>6835574</v>
+        <v>6835575</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,7 +3165,7 @@
         <v>6482</v>
       </c>
       <c r="N21" s="7">
-        <v>6956870</v>
+        <v>6956871</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3176,7 +3200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26091D66-41C1-4E66-9D75-E6A135149263}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8A1C3B-2ADA-4F51-A632-EBA615CFAC2B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3193,7 +3217,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3306,7 +3330,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3321,7 +3345,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3336,7 +3360,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,7 +3378,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3369,7 +3393,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3384,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3461,7 +3485,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3476,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3491,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,7 +3533,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3524,7 +3548,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3539,7 +3563,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3616,7 +3640,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3631,7 +3655,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3646,7 +3670,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,7 +3688,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3679,7 +3703,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3694,7 +3718,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3771,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3786,7 +3810,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3801,7 +3825,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3819,7 +3843,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3834,7 +3858,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3849,7 +3873,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3926,7 +3950,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3941,7 +3965,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3956,7 +3980,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,7 +3998,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3989,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4004,7 +4028,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4081,7 +4105,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4111,7 +4135,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,7 +4153,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4159,7 +4183,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4239,7 +4263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3ADE80D-B9AA-4BCA-BCA0-A8103A4210A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D5D68E-B3E6-484C-88F3-2ECB94F020E2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4256,7 +4280,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4369,7 +4393,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4384,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4399,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,7 +4441,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4432,7 +4456,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4447,7 +4471,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4524,7 +4548,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4539,7 +4563,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4554,7 +4578,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,7 +4596,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4587,7 +4611,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4602,7 +4626,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4679,7 +4703,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4694,7 +4718,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4709,7 +4733,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,7 +4751,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4742,7 +4766,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4757,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4834,7 +4858,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4849,7 +4873,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4864,7 +4888,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,7 +4906,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4897,7 +4921,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4912,7 +4936,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5004,7 +5028,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5052,7 +5076,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5159,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5207,7 +5231,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09B6CA9F-A4FD-4700-913C-FF3AE15BBC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EE43C6-E41B-4FF1-94D6-2DF2B7E9A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CF8E17B6-269F-4D71-BA25-1246F83356D3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44ECD96F-AAEF-4BC5-9120-659C3A9C6AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="206">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -212,13 +212,13 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>4,02%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>6,42%</t>
+    <t>6,94%</t>
   </si>
   <si>
     <t>1,27%</t>
@@ -227,424 +227,418 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,75%</t>
+    <t>3,55%</t>
   </si>
   <si>
     <t>99,29%</t>
   </si>
   <si>
-    <t>95,98%</t>
+    <t>95,99%</t>
   </si>
   <si>
     <t>98,16%</t>
   </si>
   <si>
-    <t>93,58%</t>
+    <t>93,06%</t>
   </si>
   <si>
     <t>98,73%</t>
   </si>
   <si>
-    <t>96,25%</t>
+    <t>96,45%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
   </si>
   <si>
     <t>99,84%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>99,93%</t>
+  </si>
+  <si>
+    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
-  </si>
-  <si>
-    <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
   </si>
   <si>
     <t>99,47%</t>
@@ -1074,7 +1068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A147613C-B882-4285-B339-3714657DF81C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C213DEC-E8B9-4C53-8E67-C72C73996073}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2137,7 +2131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F1F5EC-0369-4104-A76C-AA9012A60ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BFB580-E6E1-449F-8D56-1DF50C6B7DC3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2419,10 +2413,10 @@
         <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2431,13 +2425,13 @@
         <v>13945</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -2446,13 +2440,13 @@
         <v>16933</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,10 +2464,10 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
         <v>535</v>
@@ -2482,13 +2476,13 @@
         <v>566508</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M8" s="7">
         <v>1081</v>
@@ -2497,13 +2491,13 @@
         <v>1147061</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2571,13 +2565,13 @@
         <v>13806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -2586,13 +2580,13 @@
         <v>23977</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7">
         <v>33</v>
@@ -2601,13 +2595,13 @@
         <v>37783</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2622,13 +2616,13 @@
         <v>1004141</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>912</v>
@@ -2637,13 +2631,13 @@
         <v>1001669</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M11" s="7">
         <v>1837</v>
@@ -2652,13 +2646,13 @@
         <v>2005810</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2726,13 +2720,13 @@
         <v>4953</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -2741,13 +2735,13 @@
         <v>8253</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -2756,13 +2750,13 @@
         <v>13205</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,13 +2771,13 @@
         <v>751585</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>694</v>
@@ -2792,13 +2786,13 @@
         <v>765937</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M14" s="7">
         <v>1378</v>
@@ -2807,13 +2801,13 @@
         <v>1517523</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2890,13 @@
         <v>34681</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -2911,13 +2905,13 @@
         <v>50500</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,13 +2926,13 @@
         <v>928120</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H17" s="7">
         <v>965</v>
@@ -2947,13 +2941,13 @@
         <v>1013081</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M17" s="7">
         <v>1859</v>
@@ -2962,13 +2956,13 @@
         <v>1941201</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +3030,13 @@
         <v>38384</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>78</v>
@@ -3051,13 +3045,13 @@
         <v>82913</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M19" s="7">
         <v>110</v>
@@ -3066,13 +3060,13 @@
         <v>121296</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,13 +3081,13 @@
         <v>3378531</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>3203</v>
@@ -3102,28 +3096,28 @@
         <v>3457043</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>6372</v>
       </c>
       <c r="N20" s="7">
-        <v>6835575</v>
+        <v>6835574</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3159,7 @@
         <v>6482</v>
       </c>
       <c r="N21" s="7">
-        <v>6956871</v>
+        <v>6956870</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3200,7 +3194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8A1C3B-2ADA-4F51-A632-EBA615CFAC2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54681E2B-C207-417B-B6AB-2DF6686B3423}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3217,7 +3211,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3330,7 +3324,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3345,7 +3339,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3360,7 +3354,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,7 +3372,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3393,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3408,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3485,7 +3479,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3500,7 +3494,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3515,7 +3509,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,7 +3527,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3548,7 +3542,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3563,7 +3557,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3640,7 +3634,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3655,7 +3649,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3670,7 +3664,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,7 +3682,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3703,7 +3697,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3718,7 +3712,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3795,7 +3789,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3810,7 +3804,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3825,7 +3819,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,7 +3837,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3858,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3873,7 +3867,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3950,7 +3944,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3965,7 +3959,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3980,7 +3974,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,7 +3992,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4013,7 +4007,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4028,7 +4022,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4105,7 +4099,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4120,7 +4114,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4135,7 +4129,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,7 +4147,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
@@ -4168,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>79</v>
+        <v>179</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
@@ -4183,7 +4177,7 @@
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4263,7 +4257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D5D68E-B3E6-484C-88F3-2ECB94F020E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A57B0AE-FAEA-4D1D-8649-0F519654F660}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4280,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4393,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4408,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4423,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4435,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4456,7 +4450,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -4471,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4548,7 +4542,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4563,7 +4557,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4578,7 +4572,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,7 +4590,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4611,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -4626,7 +4620,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4703,7 +4697,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>104</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4718,7 +4712,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4733,7 +4727,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4766,7 +4760,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4781,7 +4775,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4858,7 +4852,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>196</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4873,7 +4867,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4888,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,7 +4900,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4921,7 +4915,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4936,7 +4930,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -5028,7 +5022,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5076,7 +5070,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -5183,7 +5177,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -5231,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A14_2012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38EE43C6-E41B-4FF1-94D6-2DF2B7E9A03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F44BCB3-9C87-4EA3-ABE0-EE736FD5E6A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{44ECD96F-AAEF-4BC5-9120-659C3A9C6AA6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1CD705DF-B3B4-41CF-87A3-5F6FA7E2D916}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="169">
   <si>
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,13 +80,13 @@
     <t>0%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -95,90 +95,69 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>96,96%</t>
+    <t>99,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
   </si>
   <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>99,53%</t>
   </si>
   <si>
@@ -209,88 +188,52 @@
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2012 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>1,36%</t>
@@ -341,9 +284,6 @@
     <t>98,71%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,25%</t>
   </si>
   <si>
@@ -365,9 +305,6 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
     <t>98,04%</t>
   </si>
   <si>
@@ -482,51 +419,33 @@
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>0,23%</t>
   </si>
   <si>
     <t>99,6%</t>
   </si>
   <si>
-    <t>99,46%</t>
-  </si>
-  <si>
     <t>99,77%</t>
   </si>
   <si>
@@ -587,40 +506,10 @@
     <t>Población según si ha consumido antidepresivos y estimulantes en las dos últimas semanas / 2012 en 2023 (Tasa respuesta: 35,25%)</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -1068,8 +957,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C213DEC-E8B9-4C53-8E67-C72C73996073}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3B1446-1BD8-4C5D-BF3F-34CAAA9262F9}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1237,10 +1126,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1252,10 +1141,10 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I5" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
@@ -1267,10 +1156,10 @@
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N5" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
@@ -1288,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>397</v>
       </c>
       <c r="D6" s="7">
-        <v>69473</v>
+        <v>410208</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -1303,10 +1192,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>44</v>
+        <v>294</v>
       </c>
       <c r="I6" s="7">
-        <v>39334</v>
+        <v>294191</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1318,10 +1207,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>106</v>
+        <v>691</v>
       </c>
       <c r="N6" s="7">
-        <v>108808</v>
+        <v>704398</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1392,10 +1281,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D8" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1407,10 +1296,10 @@
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I8" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
@@ -1422,10 +1311,10 @@
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N8" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
@@ -1443,10 +1332,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>515</v>
       </c>
       <c r="D9" s="7">
-        <v>340735</v>
+        <v>564275</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1458,10 +1347,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>250</v>
+        <v>372</v>
       </c>
       <c r="I9" s="7">
-        <v>254856</v>
+        <v>394929</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1473,10 +1362,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>585</v>
+        <v>887</v>
       </c>
       <c r="N9" s="7">
-        <v>595591</v>
+        <v>959204</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1538,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1547,46 +1436,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D11" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I11" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N11" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -1598,10 +1487,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>515</v>
+        <v>385</v>
       </c>
       <c r="D12" s="7">
-        <v>564275</v>
+        <v>414284</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -1613,10 +1502,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>372</v>
+        <v>292</v>
       </c>
       <c r="I12" s="7">
-        <v>394929</v>
+        <v>288056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1628,10 +1517,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>887</v>
+        <v>677</v>
       </c>
       <c r="N12" s="7">
-        <v>959204</v>
+        <v>702340</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1645,7 +1534,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1663,7 +1552,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1678,7 +1567,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -1693,7 +1582,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1702,46 +1591,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D14" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I14" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N14" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -1753,10 +1642,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>385</v>
+        <v>581</v>
       </c>
       <c r="D15" s="7">
-        <v>414284</v>
+        <v>558896</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1768,10 +1657,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>292</v>
+        <v>406</v>
       </c>
       <c r="I15" s="7">
-        <v>288056</v>
+        <v>422547</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1783,10 +1672,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>677</v>
+        <v>987</v>
       </c>
       <c r="N15" s="7">
-        <v>702340</v>
+        <v>981442</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1800,7 +1689,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1818,7 +1707,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1833,7 +1722,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -1848,7 +1737,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1857,46 +1746,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D17" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I17" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N17" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -1908,10 +1797,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>581</v>
+        <v>1878</v>
       </c>
       <c r="D18" s="7">
-        <v>558896</v>
+        <v>1947662</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -1923,10 +1812,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>406</v>
+        <v>1364</v>
       </c>
       <c r="I18" s="7">
-        <v>422547</v>
+        <v>1399722</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1938,10 +1827,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>987</v>
+        <v>3242</v>
       </c>
       <c r="N18" s="7">
-        <v>981442</v>
+        <v>3347384</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1954,171 +1843,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N20" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1878</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1947662</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1364</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1399722</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3242</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3347384</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2131,8 +1864,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42BFB580-E6E1-449F-8D56-1DF50C6B7DC3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F1A3A3-FE98-4ABE-B06F-7E45189CF4C3}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2148,7 +1881,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2249,49 +1982,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>818</v>
+        <v>3806</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="7">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7">
+        <v>16002</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>19809</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>2058</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="7">
-        <v>3</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2876</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,49 +2033,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>120</v>
+        <v>666</v>
       </c>
       <c r="D5" s="7">
-        <v>114132</v>
+        <v>694685</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="7">
+        <v>632</v>
+      </c>
+      <c r="I5" s="7">
+        <v>676356</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1298</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1371040</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="7">
-        <v>97</v>
-      </c>
-      <c r="I5" s="7">
-        <v>109847</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>217</v>
-      </c>
-      <c r="N5" s="7">
-        <v>223979</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>121</v>
+        <v>670</v>
       </c>
       <c r="D6" s="7">
-        <v>114950</v>
+        <v>698491</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -2366,10 +2099,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>646</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>692358</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2381,10 +2114,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>220</v>
+        <v>1316</v>
       </c>
       <c r="N6" s="7">
-        <v>226855</v>
+        <v>1390849</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2404,49 +2137,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>2989</v>
+        <v>13806</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G7" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="7">
+        <v>22</v>
+      </c>
+      <c r="I7" s="7">
+        <v>23977</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M7" s="7">
+        <v>33</v>
+      </c>
+      <c r="N7" s="7">
+        <v>37783</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13945</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M7" s="7">
-        <v>15</v>
-      </c>
-      <c r="N7" s="7">
-        <v>16933</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,49 +2188,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>546</v>
+        <v>925</v>
       </c>
       <c r="D8" s="7">
-        <v>580552</v>
+        <v>1004141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>912</v>
+      </c>
+      <c r="I8" s="7">
+        <v>1001669</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="7">
-        <v>535</v>
-      </c>
-      <c r="I8" s="7">
-        <v>566508</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1837</v>
+      </c>
+      <c r="N8" s="7">
+        <v>2005810</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="M8" s="7">
-        <v>1081</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1147061</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>936</v>
       </c>
       <c r="D9" s="7">
-        <v>583541</v>
+        <v>1017947</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -2521,10 +2254,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>934</v>
       </c>
       <c r="I9" s="7">
-        <v>580453</v>
+        <v>1025646</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2536,10 +2269,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>1096</v>
+        <v>1870</v>
       </c>
       <c r="N9" s="7">
-        <v>1163994</v>
+        <v>2043593</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2559,49 +2292,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D10" s="7">
-        <v>13806</v>
+        <v>4953</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8253</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23977</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>12</v>
+      </c>
+      <c r="N10" s="7">
+        <v>13205</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="7">
-        <v>33</v>
-      </c>
-      <c r="N10" s="7">
-        <v>37783</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>90</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,49 +2343,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>925</v>
+        <v>684</v>
       </c>
       <c r="D11" s="7">
-        <v>1004141</v>
+        <v>751585</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="7">
+        <v>694</v>
+      </c>
+      <c r="I11" s="7">
+        <v>765937</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1378</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1517523</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="7">
-        <v>912</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1001669</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1837</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2005810</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>936</v>
+        <v>688</v>
       </c>
       <c r="D12" s="7">
-        <v>1017947</v>
+        <v>756538</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2676,10 +2409,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>934</v>
+        <v>702</v>
       </c>
       <c r="I12" s="7">
-        <v>1025646</v>
+        <v>774190</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2691,10 +2424,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1870</v>
+        <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>2043593</v>
+        <v>1530728</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2708,55 +2441,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>4953</v>
+        <v>15819</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" s="7">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7">
+        <v>34681</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M13" s="7">
+        <v>47</v>
+      </c>
+      <c r="N13" s="7">
+        <v>50500</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8253</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M13" s="7">
-        <v>12</v>
-      </c>
-      <c r="N13" s="7">
-        <v>13205</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,49 +2498,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>684</v>
+        <v>894</v>
       </c>
       <c r="D14" s="7">
-        <v>751585</v>
+        <v>928120</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7">
+        <v>965</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1013081</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1859</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1941201</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" s="7">
-        <v>694</v>
-      </c>
-      <c r="I14" s="7">
-        <v>765937</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1378</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1517523</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,10 +2549,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>688</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>756538</v>
+        <v>943939</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -2831,10 +2564,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>702</v>
+        <v>999</v>
       </c>
       <c r="I15" s="7">
-        <v>774190</v>
+        <v>1047762</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2846,10 +2579,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>1390</v>
+        <v>1906</v>
       </c>
       <c r="N15" s="7">
-        <v>1530728</v>
+        <v>1991701</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2863,55 +2596,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7">
-        <v>15819</v>
+        <v>38384</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" s="7">
+        <v>78</v>
+      </c>
+      <c r="I16" s="7">
+        <v>82913</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="7">
+        <v>110</v>
+      </c>
+      <c r="N16" s="7">
+        <v>121296</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H16" s="7">
-        <v>34</v>
-      </c>
-      <c r="I16" s="7">
-        <v>34681</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M16" s="7">
-        <v>47</v>
-      </c>
-      <c r="N16" s="7">
-        <v>50500</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,49 +2653,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>894</v>
+        <v>3169</v>
       </c>
       <c r="D17" s="7">
-        <v>928120</v>
+        <v>3378531</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3203</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3457043</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M17" s="7">
+        <v>6372</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6835575</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" s="7">
-        <v>965</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1013081</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1859</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1941201</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2971,10 +2704,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>907</v>
+        <v>3201</v>
       </c>
       <c r="D18" s="7">
-        <v>943939</v>
+        <v>3416915</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -2986,10 +2719,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>999</v>
+        <v>3281</v>
       </c>
       <c r="I18" s="7">
-        <v>1047762</v>
+        <v>3539956</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3001,10 +2734,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1906</v>
+        <v>6482</v>
       </c>
       <c r="N18" s="7">
-        <v>1991701</v>
+        <v>6956871</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3017,171 +2750,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>32</v>
-      </c>
-      <c r="D19" s="7">
-        <v>38384</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H19" s="7">
-        <v>78</v>
-      </c>
-      <c r="I19" s="7">
-        <v>82913</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="7">
-        <v>110</v>
-      </c>
-      <c r="N19" s="7">
-        <v>121296</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3169</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3378531</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3203</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3457043</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6372</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6835574</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3201</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3416915</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3281</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3539956</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6482</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6956870</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3194,8 +2771,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54681E2B-C207-417B-B6AB-2DF6686B3423}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E7DAB91-9D30-401D-90D1-A6BE22F0194E}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3211,7 +2788,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3324,7 +2901,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3339,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3354,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,46 +2940,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D5" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I5" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N5" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3414,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>55</v>
+        <v>322</v>
       </c>
       <c r="D6" s="7">
-        <v>57524</v>
+        <v>335947</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -3429,10 +3006,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>36</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>33014</v>
+        <v>217593</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3444,10 +3021,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>91</v>
+        <v>548</v>
       </c>
       <c r="N6" s="7">
-        <v>90539</v>
+        <v>553540</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3479,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3494,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3509,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3518,46 +3095,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D8" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I8" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N8" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3569,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>267</v>
+        <v>484</v>
       </c>
       <c r="D9" s="7">
-        <v>278423</v>
+        <v>522165</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -3584,10 +3161,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>190</v>
+        <v>355</v>
       </c>
       <c r="I9" s="7">
-        <v>184579</v>
+        <v>361569</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3599,10 +3176,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>457</v>
+        <v>839</v>
       </c>
       <c r="N9" s="7">
-        <v>463001</v>
+        <v>883734</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3634,7 +3211,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3649,7 +3226,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3664,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3673,46 +3250,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D11" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I11" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N11" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3724,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>484</v>
+        <v>370</v>
       </c>
       <c r="D12" s="7">
-        <v>522165</v>
+        <v>406976</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -3739,10 +3316,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="I12" s="7">
-        <v>361569</v>
+        <v>303996</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3754,10 +3331,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>839</v>
+        <v>667</v>
       </c>
       <c r="N12" s="7">
-        <v>883734</v>
+        <v>710972</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3771,7 +3348,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3789,7 +3366,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3804,7 +3381,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3819,7 +3396,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,46 +3405,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D14" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I14" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N14" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3879,10 +3456,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>370</v>
+        <v>434</v>
       </c>
       <c r="D15" s="7">
-        <v>406976</v>
+        <v>439273</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3894,10 +3471,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>297</v>
+        <v>349</v>
       </c>
       <c r="I15" s="7">
-        <v>303996</v>
+        <v>362767</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3909,10 +3486,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>667</v>
+        <v>783</v>
       </c>
       <c r="N15" s="7">
-        <v>710972</v>
+        <v>802040</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3926,7 +3503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3944,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3959,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3974,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,46 +3560,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D17" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I17" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N17" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4034,10 +3611,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>434</v>
+        <v>1610</v>
       </c>
       <c r="D18" s="7">
-        <v>439273</v>
+        <v>1704362</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -4049,10 +3626,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>349</v>
+        <v>1227</v>
       </c>
       <c r="I18" s="7">
-        <v>362767</v>
+        <v>1245925</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4064,10 +3641,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>783</v>
+        <v>2837</v>
       </c>
       <c r="N18" s="7">
-        <v>802040</v>
+        <v>2950287</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4080,171 +3657,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1610</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1704362</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1227</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1245925</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2837</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2950287</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4257,8 +3678,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A57B0AE-FAEA-4D1D-8649-0F519654F660}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC04A468-0262-4F22-98FF-7180C6F3D06D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4274,7 +3695,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4387,7 +3808,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4402,7 +3823,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>183</v>
+        <v>30</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4417,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,46 +3847,46 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="D5" s="7">
-        <v>44135</v>
+        <v>284288</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="I5" s="7">
-        <v>42033</v>
+        <v>238760</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>111</v>
+        <v>660</v>
       </c>
       <c r="N5" s="7">
-        <v>86169</v>
+        <v>523048</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>187</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -4477,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>277</v>
       </c>
       <c r="D6" s="7">
-        <v>44135</v>
+        <v>284288</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -4492,10 +3913,10 @@
         <v>19</v>
       </c>
       <c r="H6" s="7">
-        <v>65</v>
+        <v>383</v>
       </c>
       <c r="I6" s="7">
-        <v>42033</v>
+        <v>238760</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4507,10 +3928,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>111</v>
+        <v>660</v>
       </c>
       <c r="N6" s="7">
-        <v>86169</v>
+        <v>523048</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4542,7 +3963,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>84</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4557,7 +3978,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4572,7 +3993,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4581,46 +4002,46 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="D8" s="7">
-        <v>246788</v>
+        <v>745384</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>191</v>
+        <v>92</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="I8" s="7">
-        <v>216326</v>
+        <v>350075</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>549</v>
+        <v>931</v>
       </c>
       <c r="N8" s="7">
-        <v>463114</v>
+        <v>1095459</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4632,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>231</v>
+        <v>451</v>
       </c>
       <c r="D9" s="7">
-        <v>246788</v>
+        <v>745384</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -4647,10 +4068,10 @@
         <v>19</v>
       </c>
       <c r="H9" s="7">
-        <v>318</v>
+        <v>480</v>
       </c>
       <c r="I9" s="7">
-        <v>216326</v>
+        <v>350075</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4662,10 +4083,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>549</v>
+        <v>931</v>
       </c>
       <c r="N9" s="7">
-        <v>463114</v>
+        <v>1095459</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4697,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4712,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4727,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>194</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4736,46 +4157,46 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="D11" s="7">
-        <v>573056</v>
+        <v>323320</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="I11" s="7">
-        <v>394353</v>
+        <v>306214</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>931</v>
+        <v>638</v>
       </c>
       <c r="N11" s="7">
-        <v>967409</v>
+        <v>629534</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4787,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>451</v>
+        <v>274</v>
       </c>
       <c r="D12" s="7">
-        <v>573056</v>
+        <v>323320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -4802,10 +4223,10 @@
         <v>19</v>
       </c>
       <c r="H12" s="7">
-        <v>480</v>
+        <v>364</v>
       </c>
       <c r="I12" s="7">
-        <v>394353</v>
+        <v>306214</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4817,10 +4238,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>931</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>967409</v>
+        <v>629534</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4834,7 +4255,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4852,7 +4273,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4867,7 +4288,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>197</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4882,7 +4303,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4891,46 +4312,46 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D14" s="7">
-        <v>330951</v>
+        <v>401200</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="I14" s="7">
-        <v>306286</v>
+        <v>340597</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>638</v>
+        <v>853</v>
       </c>
       <c r="N14" s="7">
-        <v>637236</v>
+        <v>741796</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>201</v>
+        <v>28</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4942,10 +4363,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>274</v>
+        <v>386</v>
       </c>
       <c r="D15" s="7">
-        <v>330951</v>
+        <v>401200</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4957,10 +4378,10 @@
         <v>19</v>
       </c>
       <c r="H15" s="7">
-        <v>364</v>
+        <v>467</v>
       </c>
       <c r="I15" s="7">
-        <v>306286</v>
+        <v>340597</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4972,10 +4393,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>638</v>
+        <v>853</v>
       </c>
       <c r="N15" s="7">
-        <v>637236</v>
+        <v>741796</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4989,7 +4410,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5007,7 +4428,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5022,7 +4443,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5037,7 +4458,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,46 +4467,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>386</v>
+        <v>1388</v>
       </c>
       <c r="D17" s="7">
-        <v>423543</v>
+        <v>1754190</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>467</v>
+        <v>1694</v>
       </c>
       <c r="I17" s="7">
-        <v>383910</v>
+        <v>1235646</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>853</v>
+        <v>3082</v>
       </c>
       <c r="N17" s="7">
-        <v>807453</v>
+        <v>2989837</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -5097,10 +4518,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>386</v>
+        <v>1388</v>
       </c>
       <c r="D18" s="7">
-        <v>423543</v>
+        <v>1754190</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5112,10 +4533,10 @@
         <v>19</v>
       </c>
       <c r="H18" s="7">
-        <v>467</v>
+        <v>1694</v>
       </c>
       <c r="I18" s="7">
-        <v>383910</v>
+        <v>1235646</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5127,10 +4548,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>853</v>
+        <v>3082</v>
       </c>
       <c r="N18" s="7">
-        <v>807453</v>
+        <v>2989837</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5143,171 +4564,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1694</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3082</v>
-      </c>
-      <c r="N20" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1388</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1618473</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1694</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1342908</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3082</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2961381</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
